--- a/biology/Médecine/Centre_médical_des_armées/Centre_médical_des_armées.xlsx
+++ b/biology/Médecine/Centre_médical_des_armées/Centre_médical_des_armées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+          <t>Centre_médical_des_armées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les centres médicaux des armées (CMA) sont des établissements militaires de santé qui assurent la médecine de premier recours et la médecine d’aptitude professionnelle pour tout le personnel de l’Armée de terre, de l’air, de la Marine nationale et de la Gendarmerie nationale sur le territoire français. Ils sont sous l’entière autorité du Service de santé des armées, contrairement aux anciens services médicaux d’unité (couramment appelés infirmeries) auxquels ils succèdent. Ils ont été créés dans une optique de rationalisation du soutien des Forces armées sous l’impulsion du Livre blanc de la Défense 2008 et de la Révision générale des politiques publiques[1].
-Ils sont gérés par la Direction de la médecine des forces (DMF), définie par le programme « SSA 2020 » comme une des 5 composantes du Service de santé des armées[2].
-Chaque CMA est subdivisé en antennes médicales, situėes à proximité ou dans les implantations des régiments, bases aériennes ou port. Elles assurent le soutien médical quotidien, mettent en œuvre la politique de prévention, forment et préparent les militaires aux risques sanitaires des opérations extérieures (OPEX). Les CMA et leurs antennes fournissent les auxiliaires sanitaires, infirmiers et médecins pour le soutien médical de première ligne lors des  projections en OPEX[3].
-Les CMA ont changé de nom en 2017 avec l’apparition d’une désignation basée sur une numérotation pour remplacer les appellations liées à leur position géographique[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les centres médicaux des armées (CMA) sont des établissements militaires de santé qui assurent la médecine de premier recours et la médecine d’aptitude professionnelle pour tout le personnel de l’Armée de terre, de l’air, de la Marine nationale et de la Gendarmerie nationale sur le territoire français. Ils sont sous l’entière autorité du Service de santé des armées, contrairement aux anciens services médicaux d’unité (couramment appelés infirmeries) auxquels ils succèdent. Ils ont été créés dans une optique de rationalisation du soutien des Forces armées sous l’impulsion du Livre blanc de la Défense 2008 et de la Révision générale des politiques publiques.
+Ils sont gérés par la Direction de la médecine des forces (DMF), définie par le programme « SSA 2020 » comme une des 5 composantes du Service de santé des armées.
+Chaque CMA est subdivisé en antennes médicales, situėes à proximité ou dans les implantations des régiments, bases aériennes ou port. Elles assurent le soutien médical quotidien, mettent en œuvre la politique de prévention, forment et préparent les militaires aux risques sanitaires des opérations extérieures (OPEX). Les CMA et leurs antennes fournissent les auxiliaires sanitaires, infirmiers et médecins pour le soutien médical de première ligne lors des  projections en OPEX.
+Les CMA ont changé de nom en 2017 avec l’apparition d’une désignation basée sur une numérotation pour remplacer les appellations liées à leur position géographique.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+          <t>Centre_médical_des_armées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,48 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Après les restructurations de la médecine des forces, il existe en 2021 seize centres médicaux des armées en France métropolitaine et 14 hors métropole[5] :
-1er centre médical des armées de Paris
-1re antenne médicale de Balard
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après les restructurations de la médecine des forces, il existe en 2021 seize centres médicaux des armées en France métropolitaine et 14 hors métropole :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1er centre médical des armées de Paris</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1re antenne médicale de Balard
 2e antenne médicale de l'École militaire
 3e antenne médicale des Célestins
 4e antenne médicale de Rosny-sous-Bois
@@ -532,9 +581,43 @@
 Antenne médicale de Clamart
 Antenne médicale de Saint-Mandé
 23e groupe vétérinaire de Paris-Garde républicaine
-28e groupe vétérinaire de Paris-École militaire
-2e centre médical des armées de Versailles
-9e antenne médicale de Bretigny-sur-Orge
+28e groupe vétérinaire de Paris-École militaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2e centre médical des armées de Versailles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9e antenne médicale de Bretigny-sur-Orge
 11e antenne médicale de Palaiseau
 12e antenne médicale de Vélizy-Villacoublay
 13e antenne médicale de Monthléry
@@ -550,9 +633,43 @@
 134e antenne médicale de Rouen
 1re antenne médicale spécialisée de Satory
 29e groupe vétérinaire de Palaiseau
-41e groupe vétérinaire de Fontainbleau
-3e centre médical des armées de Lille
-20e antenne médicale d'Amiens
+41e groupe vétérinaire de Fontainbleau</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3e centre médical des armées de Lille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>20e antenne médicale d'Amiens
 21e antenne médicale de Lille
 22e antenne médicale de Villeneuve-d'Ascq
 23e antenne médicale de Douai
@@ -564,9 +681,43 @@
 37e antenne médicale de Châlons-en-Champagne
 52e antenne médicale de Mailly-le-Camp
 135e antenne médicale de Calais
-24e groupe vétérinaire de Suippes
-4e centre médical des armées de Metz
-30e antenne médicale de Thionville
+24e groupe vétérinaire de Suippes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4e centre médical des armées de Metz</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>30e antenne médicale de Thionville
 32e antenne médicale d'Étain
 33e antenne médicale de Thierville-sur-Meuse
 34e antenne médicale de Metz
@@ -581,9 +732,43 @@
 55e antenne médicale de Chaumont
 56e antenne médicale de Luxeuil-les-Bains
 58e antenne médicale de Chaumont-Semoutiers
-27e groupe vétérinaire de Metz
-5e centre médical des armées de Strasbourg
-26e antenne médicale de Müllheim (Allemagne)
+27e groupe vétérinaire de Metz</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5e centre médical des armées de Strasbourg</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>26e antenne médicale de Müllheim (Allemagne)
 38e antenne médicale de Bitche
 39e antenne médicale de Haguenau
 40e antenne médicale de Colmar
@@ -594,9 +779,43 @@
 46e antenne médicale de Strasbourg-Lizé
 48e antenne médicale de Mutzig
 54e antenne médicale de Meyenheim
-10e groupe vétérinaire de Strasbourg
-6e CMA (Besançon)
-57e antenne médicale de Belfort
+10e groupe vétérinaire de Strasbourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6e CMA (Besançon)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>57e antenne médicale de Belfort
 59e antenne médicale de Bourogne
 60e antenne médicale de Valdahon
 61e antenne médicale de Besançon - Justice
@@ -605,9 +824,43 @@
 65e antenne médicale de Longvic
 68e antenne médicale de Chalon-sur-Saône
 72e antenne médicale de Autun
-21e groupe vétérinaire de Besançon
-7e CMA (Lyon)
-66e antenne médicale de Chamonix
+21e groupe vétérinaire de Besançon</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7e CMA (Lyon)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>66e antenne médicale de Chamonix
 67e antenne médicale de Cran Gevrier
 70e antenne médicale de Barby
 71e antenne médicale de Ambérieu-en-Bugey
@@ -621,18 +874,86 @@
 81e antenne médicale de Chabeuil
 82e antenne médicale de Valence
 141e antenne médicale de Gap
-542e groupe vétérinaire de Lyon
-8e CMA (Clermont-Ferrand)
-84e antenne médicale d'Issoire
+542e groupe vétérinaire de Lyon</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8e CMA (Clermont-Ferrand)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>84e antenne médicale d'Issoire
 85e antenne médicale de Clermont-Ferrand
 86e antenne médicale Desaix à Clermont-Ferrand
 88e antenne médicale de Montluçon
 91e antenne médicale de La Courtine
 92e antenne médicale de Tulle
 93e antenne médicale de Brive-la-Gaillarde
-94e antenne médicale de Limoges
-9e CMA (Toulon)
-140e antenne médicale d'Antibes
+94e antenne médicale de Limoges</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9e CMA (Toulon)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>140e antenne médicale d'Antibes
 142e antenne médicale de Fréjus
 143e antenne médicale de Digne-les-Bains
 144e antenne médicale de Canjuers
@@ -643,9 +964,43 @@
 150e antenne médicale de Toulon
 151e antenne médicale de Saint-Mandrier-sur-Mer
 152e antenne médicale de l'École de plongée
-1re groupe vétérinaire de Toulon
-10e CMA (Marseille)
-136e antenne médicale de Borgo
+1re groupe vétérinaire de Toulon</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10e CMA (Marseille)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>136e antenne médicale de Borgo
 137e antenne médicale de Solenzara
 138e antenne médicale de Calvi
 139e antenne médicale de Ajaccio
@@ -663,9 +1018,43 @@
 163e antenne médicale de Nîmes-Garrigues
 164e antenne médicale de Montpellier
 165e antenne médicale de La Cavalerie
-51e groupe vétérinaire de Nîmes
-11e CMA (Toulouse)
-90e antenne médicale de Rodez
+51e groupe vétérinaire de Nîmes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>11e CMA (Toulouse)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>90e antenne médicale de Rodez
 166e antenne médicale de Perpignan
 167e antenne médicale de Carcassonne
 168e antenne médicale de Castres
@@ -682,9 +1071,43 @@
 180e antenne médicale de Tarbes-Foix-Lescun
 CPIS à Perpignan
 26e groupe vétérinaire de Gramat
-541e groupe vétérinaire de Toulouse
-12e CMA (Bordeaux)
-98e antenne médicale de Saint-Astier
+541e groupe vétérinaire de Toulouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>12e CMA (Bordeaux)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>98e antenne médicale de Saint-Astier
 103e antenne médicale de Bordeaux
 104e antenne médicale Battesti
 105e antenne médicale de Mérignac
@@ -699,9 +1122,43 @@
 3e antenne médicale spécialisée d'Uzein
 4e antenne médicale spécialisée de Bayonne
 5e antenne médicale spécialisée de Souge
-22e groupe vétérinaire de Bordeaux
-13e CMA (Rochefort)
-101e antenne médicale de Brie-la-Braconne
+22e groupe vétérinaire de Bordeaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>13e CMA (Rochefort)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>101e antenne médicale de Brie-la-Braconne
 102e antenne médicale de Angoulème
 106e antenne médicale de Cognac
 107e antenne médicale de Poitiers
@@ -710,9 +1167,43 @@
 112e antenne médicale de Rochefort-SLT Aubry
 113e antenne médicale de Rochefort
 115e antenne médicale de Fontenay-le-Comte
-25e groupe vétérinaire de Poitiers
-14e CMA  (Tours)
-87e antenne médicale d'Avord
+25e groupe vétérinaire de Poitiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>14e CMA  (Tours)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>87e antenne médicale d'Avord
 89e antenne médicale de Bourges
 95e antenne médicale de Romorantin
 96e antenne médicale d'Orléans
@@ -728,9 +1219,43 @@
 120e antenne médicale d'Auvours
 6e antenne médicale spécialisée de Bricy
 UIISC 1 à Nogent-le-Rotrou
-33e groupe vétérinaire de Tours
-15e CMA (Rennes)
-121e antenne médicale de Nantes
+33e groupe vétérinaire de Tours</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>15e CMA (Rennes)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>121e antenne médicale de Nantes
 122e antenne médicale de Vannes
 123e antenne médicale de Coëtquidan
 124e antenne médicale de Saint-Jacques-de-la-Lande
@@ -738,9 +1263,43 @@
 127e antenne médicale de Saint-Aubin-du-Cormier
 131e antenne médicale de Caen
 133e antenne médicale de Cherbourg
-32e groupe vétérinaire de Rennes
-16e CMA (Brest)
-125e antenne médicale de Lann-Bihoué
+32e groupe vétérinaire de Rennes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>16e CMA (Brest)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>125e antenne médicale de Lann-Bihoué
 128e antenne médicale de Châteaulin
 129e antenne médicale de Lanvéoc-Poulmic
 130e antenne médicale de Landivisiau
